--- a/xlsx/法学家_intext.xlsx
+++ b/xlsx/法学家_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>法学家</t>
   </si>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會學家</t>
+    <t>社会学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6%E5%AE%B6</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>通訊</t>
+    <t>通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1%E6%B3%95%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校法學院</t>
+    <t>加州大学柏克莱分校法学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%85%AC%E6%B3%95</t>
@@ -167,37 +167,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%89%99%E5%9C%8B%E9%9A%9B%E6%B3%95%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>海牙國際法學院</t>
+    <t>海牙国际法学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%90%B3%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>東吳大學</t>
+    <t>东吴大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%98%E5%AE%8F%E9%81%94</t>
   </si>
   <si>
-    <t>丘宏達</t>
+    <t>丘宏达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%8F%B0%E7%81%A3%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立台灣大學</t>
+    <t>国立台湾大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立政治大學</t>
+    <t>国立政治大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8B%99%E5%A7%94%E5%93%A1_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>政務委員 (中華民國)</t>
+    <t>政务委员 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國外交部</t>
+    <t>中华民国外交部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E7%BB%8F%E7%86%8A</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法理學</t>
+    <t>法理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%A4%A7%E5%AD%A6</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%96%87%E5%8C%96%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>中國文化學院</t>
+    <t>中国文化学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E5%BC%98%E6%AF%85</t>
   </si>
   <si>
-    <t>陳弘毅</t>
+    <t>陈弘毅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港大學</t>
+    <t>香港大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A7%E5%AD%B8%E6%B3%95%E5%BE%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>香港大學法律學院</t>
+    <t>香港大学法律学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%89%E5%A3%B0%E6%95%99</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>北京大學</t>
+    <t>北京大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6%E6%B3%95%E5%AD%A6%E9%99%A2</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E6%B3%95%E5%AD%A6%E9%99%A2</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E8%B2%B4%E5%9C%8B</t>
   </si>
   <si>
-    <t>王貴國</t>
+    <t>王贵国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港城市大學</t>
+    <t>香港城市大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%90%B5%E5%B4%96</t>
   </si>
   <si>
-    <t>王鐵崖</t>
+    <t>王铁崖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E5%8D%8E%E6%89%AC</t>
@@ -395,19 +395,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8%E6%B3%95%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>喬治華盛頓大學法學院</t>
+    <t>乔治华盛顿大学法学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E4%BF%AE%E9%8A%98</t>
   </si>
   <si>
-    <t>吳修銘</t>
+    <t>吴修铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B5%E7%90%86%E6%B5%B7</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6%E9%99%A2</t>
@@ -437,25 +437,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E6%88%90%E6%80%9D</t>
   </si>
   <si>
-    <t>鄭成思</t>
+    <t>郑成思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>中國社會科學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2868,7 +2865,7 @@
         <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2894,10 +2891,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2923,10 +2920,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -2952,10 +2949,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2981,10 +2978,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
